--- a/biology/Zoologie/Arenophryne/Arenophryne.xlsx
+++ b/biology/Zoologie/Arenophryne/Arenophryne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arenophryne est un genre d'amphibiens de la famille des Myobatrachidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arenophryne est un genre d'amphibiens de la famille des Myobatrachidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces de ce genre se rencontrent dans une toute petite région côtière de l'ouest de l'Australie-Occidentale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces de ce genre se rencontrent dans une toute petite région côtière de l'ouest de l'Australie-Occidentale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (11 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (11 juin 2017) :
 Arenophryne rotunda Tyler, 1976
 Arenophryne xiphorhyncha Doughty &amp; Edwards, 2008</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Arenophryne, du latin arena, « sable », phrynus, « grenouille », a été choisi en référence à l'habitat de ces espèces[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Arenophryne, du latin arena, « sable », phrynus, « grenouille », a été choisi en référence à l'habitat de ces espèces.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Tyler, 1976 : A new genus and two new species of leptodactylid frogs from Western Australia. Records of the Western Australian Museum, vol. 4, p. 45-52 (texte intégral).</t>
         </is>
@@ -635,7 +655,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amphibiens d'Australie</t>
         </is>
